--- a/辅助总表/游戏流程.xlsx
+++ b/辅助总表/游戏流程.xlsx
@@ -15,7 +15,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1682,7 +1682,7 @@
   <dimension ref="A2:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
